--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori4/67/incorrect_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori4/67/incorrect_predictions_67.xlsx
@@ -462,16 +462,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
+          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Battery not installed properly</t>
+          <t>Failed to take off</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -512,26 +512,26 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Weak GPS signal . Positioning accuracy may be compromised . Please fly with caution .</t>
+          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Positioning accuracy may be compromised</t>
+          <t>Failed to take</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori4/67/incorrect_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori4/67/incorrect_predictions_67.xlsx
@@ -462,16 +462,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
+          <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Failed to take off</t>
+          <t>Battery not installed properly</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -512,26 +512,26 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
+          <t>Weak GPS signal . Positioning accuracy may be compromised . Please fly with caution .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Failed to take</t>
+          <t>Positioning accuracy may be compromised</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
